--- a/pc/psd2html.xlsx
+++ b/pc/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>顺序</t>
   </si>
@@ -106,6 +106,64 @@
   </si>
   <si>
     <t>支付成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐采登陆.psd</t>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册02.psd</t>
+  </si>
+  <si>
+    <t>安全设置（手机验证）.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置-手机验证弹框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证身份.psd</t>
+  </si>
+  <si>
+    <t>设置密码.psd</t>
+  </si>
+  <si>
+    <t>忘记密码-3</t>
+  </si>
+  <si>
+    <t>忘记密码-4</t>
+  </si>
+  <si>
+    <t>完成.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全设置.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,6 +666,94 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pc/psd2html.xlsx
+++ b/pc/psd2html.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>顺序</t>
   </si>
@@ -165,6 +165,13 @@
   <si>
     <t>安全设置.psd</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景采购00.psd</t>
   </si>
 </sst>
 </file>
@@ -516,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,10 +612,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -616,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -627,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -638,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -649,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -660,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -671,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -682,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -693,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -704,10 +711,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -715,10 +722,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -726,10 +733,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -737,10 +744,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -748,9 +755,20 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/pc/psd2html.xlsx
+++ b/pc/psd2html.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="psd2html" sheetId="1" r:id="rId1"/>
+    <sheet name="简单页面" sheetId="2" r:id="rId2"/>
+    <sheet name="齐采" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>顺序</t>
   </si>
@@ -172,6 +174,18 @@
   </si>
   <si>
     <t>场景采购00.psd</t>
+  </si>
+  <si>
+    <t>数量操作和优惠显示不用做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单-增值税发票信息.psd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,4 +791,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>